--- a/Ciclo VI/DESARROLLO APLICACIONES MOVILES II/APP_ALTARED/DOCUMENTACION_FINAL.xlsx
+++ b/Ciclo VI/DESARROLLO APLICACIONES MOVILES II/APP_ALTARED/DOCUMENTACION_FINAL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KenshinHimura\Desktop\IDAT\Ciclo VI\DESARROLLO APLICACIONES MOVILES II\APP_ALTARED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE647A0A-4A07-42DB-BAC5-B7F397A10670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DEA078-AAC3-423D-90F7-1D313702692F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" activeTab="4" xr2:uid="{B202EAC8-4A74-44C0-8214-B65A8B004C7E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="847" activeTab="2" xr2:uid="{B202EAC8-4A74-44C0-8214-B65A8B004C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="PRESENTACION" sheetId="1" r:id="rId1"/>
@@ -825,7 +825,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -890,6 +890,20 @@
     <font>
       <b/>
       <sz val="18"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -1048,7 +1062,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1092,22 +1106,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1169,8 +1174,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2201,10 +2212,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -2258,7 +2269,7 @@
       <c r="B9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="20" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2266,7 +2277,7 @@
       <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="20" t="s">
         <v>200</v>
       </c>
       <c r="F10" s="6"/>
@@ -2275,7 +2286,7 @@
       <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="20" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2283,7 +2294,7 @@
       <c r="B12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="20" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2332,7 +2343,7 @@
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="20" t="s">
         <v>204</v>
       </c>
       <c r="F18" s="7"/>
@@ -2395,8 +2406,8 @@
   </sheetPr>
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="B2:F22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2409,16 +2420,16 @@
     <col min="7" max="16384" width="11.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-    </row>
-    <row r="3" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>29</v>
       </c>
@@ -2435,327 +2446,327 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+    <row r="5" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+    <row r="6" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>50</v>
       </c>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+      <c r="G6" s="41"/>
+    </row>
+    <row r="7" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
+    <row r="8" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="19">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="19">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="19">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+    <row r="14" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="19" t="s">
+    <row r="15" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:7" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="2:7" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F16" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="2:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="19">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="2:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="19" t="s">
+      <c r="E18" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="19">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="19" t="s">
+    <row r="19" spans="2:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="21">
+      <c r="F19" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+    <row r="20" spans="2:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F20" s="19">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="2:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F21" s="19">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="19" t="s">
+    <row r="22" spans="2:6" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="21">
+      <c r="F22" s="19">
         <v>10</v>
       </c>
     </row>
@@ -2776,7 +2787,7 @@
   <dimension ref="B3:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2788,16 +2799,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
     </row>
     <row r="5" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
@@ -2811,75 +2822,75 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="19" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="18" t="s">
         <v>166</v>
       </c>
       <c r="E12" s="8"/>
@@ -2904,7 +2915,7 @@
   </sheetPr>
   <dimension ref="B2:Q171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A140" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="I168" sqref="I168"/>
     </sheetView>
   </sheetViews>
@@ -2919,13 +2930,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
@@ -2934,11 +2945,11 @@
       <c r="C3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
     </row>
     <row r="4" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
@@ -2947,56 +2958,56 @@
       <c r="C4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
     </row>
     <row r="5" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="26" t="s">
         <v>93</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="39"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
     </row>
     <row r="6" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="40"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40"/>
+      <c r="B7" s="37"/>
       <c r="C7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="2:17" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="16" t="s">
         <v>89</v>
       </c>
@@ -3005,9 +3016,9 @@
       </c>
     </row>
     <row r="9" spans="2:17" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="16" t="s">
         <v>90</v>
       </c>
@@ -3016,13 +3027,13 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="36"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
@@ -3031,11 +3042,11 @@
       <c r="C12" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
@@ -3044,55 +3055,55 @@
       <c r="C13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
     </row>
     <row r="15" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="40"/>
+      <c r="B15" s="37"/>
       <c r="C15" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="40"/>
+      <c r="B16" s="37"/>
       <c r="C16" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
     </row>
     <row r="17" spans="2:6" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="16" t="s">
         <v>89</v>
       </c>
@@ -3101,9 +3112,9 @@
       </c>
     </row>
     <row r="18" spans="2:6" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
       <c r="E18" s="16" t="s">
         <v>90</v>
       </c>
@@ -3112,13 +3123,13 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="15" t="s">
@@ -3127,11 +3138,11 @@
       <c r="C21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
     </row>
     <row r="22" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="s">
@@ -3140,55 +3151,55 @@
       <c r="C22" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="D22" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
     </row>
     <row r="23" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="26" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="37" t="s">
+      <c r="D24" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E24" s="38"/>
-      <c r="F24" s="39"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
     </row>
     <row r="25" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="40"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
     </row>
     <row r="26" spans="2:6" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="16" t="s">
         <v>77</v>
       </c>
@@ -3197,9 +3208,9 @@
       </c>
     </row>
     <row r="27" spans="2:6" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="29"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="16" t="s">
         <v>38</v>
       </c>
@@ -3208,13 +3219,13 @@
       </c>
     </row>
     <row r="29" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="15" t="s">
@@ -3223,11 +3234,11 @@
       <c r="C30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
     </row>
     <row r="31" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
@@ -3236,55 +3247,55 @@
       <c r="C31" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D31" s="41" t="s">
+      <c r="D31" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="42"/>
-      <c r="F31" s="43"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="40"/>
     </row>
     <row r="32" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="26" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
     </row>
     <row r="33" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="40"/>
+      <c r="B33" s="37"/>
       <c r="C33" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E33" s="42"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="40"/>
     </row>
     <row r="34" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="40"/>
+      <c r="B34" s="37"/>
       <c r="C34" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="42"/>
-      <c r="F34" s="43"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
     </row>
     <row r="35" spans="2:6" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="29" t="s">
+      <c r="B35" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="31"/>
+      <c r="D35" s="28"/>
       <c r="E35" s="16" t="s">
         <v>77</v>
       </c>
@@ -3293,9 +3304,9 @@
       </c>
     </row>
     <row r="36" spans="2:6" s="4" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="29"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="16" t="s">
         <v>38</v>
       </c>
@@ -3304,13 +3315,13 @@
       </c>
     </row>
     <row r="38" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="33"/>
     </row>
     <row r="39" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="15" t="s">
@@ -3319,11 +3330,11 @@
       <c r="C39" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E39" s="38"/>
-      <c r="F39" s="39"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="36"/>
     </row>
     <row r="40" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="9" t="s">
@@ -3332,55 +3343,55 @@
       <c r="C40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="37" t="s">
+      <c r="D40" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="36"/>
     </row>
     <row r="41" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="29" t="s">
+      <c r="B41" s="26" t="s">
         <v>109</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="38"/>
-      <c r="F41" s="39"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="36"/>
     </row>
     <row r="42" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="40"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E42" s="38"/>
-      <c r="F42" s="39"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="36"/>
     </row>
     <row r="43" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="40"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="E43" s="38"/>
-      <c r="F43" s="39"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="36"/>
     </row>
     <row r="44" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="31"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="16" t="s">
         <v>77</v>
       </c>
@@ -3389,9 +3400,9 @@
       </c>
     </row>
     <row r="45" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="29"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="30"/>
       <c r="E45" s="16" t="s">
         <v>38</v>
       </c>
@@ -3400,13 +3411,13 @@
       </c>
     </row>
     <row r="47" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="34" t="s">
+      <c r="B47" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="33"/>
     </row>
     <row r="48" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="15" t="s">
@@ -3415,11 +3426,11 @@
       <c r="C48" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="37" t="s">
+      <c r="D48" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="36"/>
     </row>
     <row r="49" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="9" t="s">
@@ -3428,55 +3439,55 @@
       <c r="C49" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="37" t="s">
+      <c r="D49" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="26" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="37" t="s">
+      <c r="D50" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="38"/>
-      <c r="F50" s="39"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
     </row>
     <row r="51" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="40"/>
+      <c r="B51" s="37"/>
       <c r="C51" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="37" t="s">
+      <c r="D51" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="E51" s="38"/>
-      <c r="F51" s="39"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="40"/>
+      <c r="B52" s="37"/>
       <c r="C52" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="42"/>
-      <c r="F52" s="43"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="40"/>
     </row>
     <row r="53" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="31"/>
+      <c r="D53" s="28"/>
       <c r="E53" s="16" t="s">
         <v>77</v>
       </c>
@@ -3485,9 +3496,9 @@
       </c>
     </row>
     <row r="54" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="29"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="30"/>
       <c r="E54" s="16" t="s">
         <v>38</v>
       </c>
@@ -3496,13 +3507,13 @@
       </c>
     </row>
     <row r="56" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="34" t="s">
+      <c r="B56" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="36"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="33"/>
     </row>
     <row r="57" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="15" t="s">
@@ -3511,11 +3522,11 @@
       <c r="C57" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="E57" s="38"/>
-      <c r="F57" s="39"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="36"/>
     </row>
     <row r="58" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9" t="s">
@@ -3524,55 +3535,55 @@
       <c r="C58" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="37" t="s">
+      <c r="D58" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="39"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="36"/>
     </row>
     <row r="59" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="26" t="s">
         <v>113</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D59" s="37" t="s">
+      <c r="D59" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="38"/>
-      <c r="F59" s="39"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="36"/>
     </row>
     <row r="60" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="40"/>
+      <c r="B60" s="37"/>
       <c r="C60" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="D60" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="E60" s="38"/>
-      <c r="F60" s="39"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="36"/>
     </row>
     <row r="61" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="40"/>
+      <c r="B61" s="37"/>
       <c r="C61" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="41" t="s">
+      <c r="D61" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="42"/>
-      <c r="F61" s="43"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="40"/>
     </row>
     <row r="62" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="30" t="s">
+      <c r="C62" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="31"/>
+      <c r="D62" s="28"/>
       <c r="E62" s="16" t="s">
         <v>77</v>
       </c>
@@ -3581,9 +3592,9 @@
       </c>
     </row>
     <row r="63" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="29"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="33"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="30"/>
       <c r="E63" s="16" t="s">
         <v>38</v>
       </c>
@@ -3592,13 +3603,13 @@
       </c>
     </row>
     <row r="65" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="34" t="s">
+      <c r="B65" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="36"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="33"/>
     </row>
     <row r="66" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="15" t="s">
@@ -3607,11 +3618,11 @@
       <c r="C66" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D66" s="37" t="s">
+      <c r="D66" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="E66" s="38"/>
-      <c r="F66" s="39"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="36"/>
     </row>
     <row r="67" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9" t="s">
@@ -3620,55 +3631,55 @@
       <c r="C67" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D67" s="37" t="s">
+      <c r="D67" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E67" s="38"/>
-      <c r="F67" s="39"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="36"/>
     </row>
     <row r="68" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="26" t="s">
         <v>115</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D68" s="37" t="s">
+      <c r="D68" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="39"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="36"/>
     </row>
     <row r="69" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="40"/>
+      <c r="B69" s="37"/>
       <c r="C69" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D69" s="37" t="s">
+      <c r="D69" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="39"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="36"/>
     </row>
     <row r="70" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="40"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="41" t="s">
+      <c r="D70" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="E70" s="42"/>
-      <c r="F70" s="43"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="40"/>
     </row>
     <row r="71" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C71" s="30" t="s">
+      <c r="C71" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D71" s="31"/>
+      <c r="D71" s="28"/>
       <c r="E71" s="16" t="s">
         <v>77</v>
       </c>
@@ -3677,9 +3688,9 @@
       </c>
     </row>
     <row r="72" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="29"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="33"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="30"/>
       <c r="E72" s="16" t="s">
         <v>38</v>
       </c>
@@ -3688,13 +3699,13 @@
       </c>
     </row>
     <row r="74" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="34" t="s">
+      <c r="B74" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="36"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="33"/>
     </row>
     <row r="75" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="15" t="s">
@@ -3703,11 +3714,11 @@
       <c r="C75" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="41" t="s">
+      <c r="D75" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="E75" s="42"/>
-      <c r="F75" s="43"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="40"/>
     </row>
     <row r="76" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9" t="s">
@@ -3716,55 +3727,55 @@
       <c r="C76" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="41" t="s">
+      <c r="D76" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E76" s="42"/>
-      <c r="F76" s="43"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="40"/>
     </row>
     <row r="77" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="29" t="s">
+      <c r="B77" s="26" t="s">
         <v>117</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D77" s="41" t="s">
+      <c r="D77" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E77" s="42"/>
-      <c r="F77" s="43"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="40"/>
     </row>
     <row r="78" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="40"/>
+      <c r="B78" s="37"/>
       <c r="C78" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D78" s="41" t="s">
+      <c r="D78" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="E78" s="42"/>
-      <c r="F78" s="43"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="40"/>
     </row>
     <row r="79" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="40"/>
+      <c r="B79" s="37"/>
       <c r="C79" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="41" t="s">
+      <c r="D79" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E79" s="42"/>
-      <c r="F79" s="43"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40"/>
     </row>
     <row r="80" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="29" t="s">
+      <c r="B80" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="C80" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="D80" s="31"/>
+      <c r="D80" s="28"/>
       <c r="E80" s="16" t="s">
         <v>77</v>
       </c>
@@ -3773,9 +3784,9 @@
       </c>
     </row>
     <row r="81" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="29"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="33"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
       <c r="E81" s="16" t="s">
         <v>38</v>
       </c>
@@ -3784,13 +3795,13 @@
       </c>
     </row>
     <row r="83" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="34" t="s">
+      <c r="B83" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="36"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="15" t="s">
@@ -3799,11 +3810,11 @@
       <c r="C84" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D84" s="37" t="s">
+      <c r="D84" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="38"/>
-      <c r="F84" s="39"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="36"/>
     </row>
     <row r="85" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9" t="s">
@@ -3812,55 +3823,55 @@
       <c r="C85" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D85" s="37" t="s">
+      <c r="D85" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E85" s="38"/>
-      <c r="F85" s="39"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="36"/>
     </row>
     <row r="86" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="29" t="s">
+      <c r="B86" s="26" t="s">
         <v>119</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D86" s="37" t="s">
+      <c r="D86" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E86" s="38"/>
-      <c r="F86" s="39"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="36"/>
     </row>
     <row r="87" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="40"/>
+      <c r="B87" s="37"/>
       <c r="C87" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D87" s="37" t="s">
+      <c r="D87" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E87" s="38"/>
-      <c r="F87" s="39"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="36"/>
     </row>
     <row r="88" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="40"/>
+      <c r="B88" s="37"/>
       <c r="C88" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D88" s="37" t="s">
+      <c r="D88" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E88" s="38"/>
-      <c r="F88" s="39"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="36"/>
     </row>
     <row r="89" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="29" t="s">
+      <c r="B89" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C89" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D89" s="31"/>
+      <c r="D89" s="28"/>
       <c r="E89" s="16" t="s">
         <v>77</v>
       </c>
@@ -3869,9 +3880,9 @@
       </c>
     </row>
     <row r="90" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="29"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="33"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
       <c r="E90" s="16" t="s">
         <v>38</v>
       </c>
@@ -3880,13 +3891,13 @@
       </c>
     </row>
     <row r="92" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="34" t="s">
+      <c r="B92" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="36"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="33"/>
     </row>
     <row r="93" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="15" t="s">
@@ -3895,11 +3906,11 @@
       <c r="C93" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D93" s="37" t="s">
+      <c r="D93" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="E93" s="38"/>
-      <c r="F93" s="39"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="36"/>
     </row>
     <row r="94" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="9" t="s">
@@ -3908,55 +3919,55 @@
       <c r="C94" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D94" s="37" t="s">
+      <c r="D94" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="39"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="36"/>
     </row>
     <row r="95" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="29" t="s">
+      <c r="B95" s="26" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D95" s="37" t="s">
+      <c r="D95" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E95" s="38"/>
-      <c r="F95" s="39"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="36"/>
     </row>
     <row r="96" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="40"/>
+      <c r="B96" s="37"/>
       <c r="C96" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D96" s="37" t="s">
+      <c r="D96" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="E96" s="38"/>
-      <c r="F96" s="39"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="36"/>
     </row>
     <row r="97" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="40"/>
+      <c r="B97" s="37"/>
       <c r="C97" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="41" t="s">
+      <c r="D97" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E97" s="42"/>
-      <c r="F97" s="43"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="40"/>
     </row>
     <row r="98" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="29" t="s">
+      <c r="B98" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C98" s="30" t="s">
+      <c r="C98" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="D98" s="31"/>
+      <c r="D98" s="28"/>
       <c r="E98" s="16" t="s">
         <v>77</v>
       </c>
@@ -3965,9 +3976,9 @@
       </c>
     </row>
     <row r="99" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="29"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="33"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="30"/>
       <c r="E99" s="16" t="s">
         <v>38</v>
       </c>
@@ -3976,13 +3987,13 @@
       </c>
     </row>
     <row r="101" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C101" s="35"/>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="36"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="33"/>
     </row>
     <row r="102" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="15" t="s">
@@ -3991,11 +4002,11 @@
       <c r="C102" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D102" s="37" t="s">
+      <c r="D102" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="E102" s="38"/>
-      <c r="F102" s="39"/>
+      <c r="E102" s="35"/>
+      <c r="F102" s="36"/>
     </row>
     <row r="103" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="9" t="s">
@@ -4004,55 +4015,55 @@
       <c r="C103" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D103" s="37" t="s">
+      <c r="D103" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E103" s="38"/>
-      <c r="F103" s="39"/>
+      <c r="E103" s="35"/>
+      <c r="F103" s="36"/>
     </row>
     <row r="104" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="29" t="s">
+      <c r="B104" s="26" t="s">
         <v>123</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D104" s="37" t="s">
+      <c r="D104" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E104" s="38"/>
-      <c r="F104" s="39"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="36"/>
     </row>
     <row r="105" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="40"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D105" s="37" t="s">
+      <c r="D105" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="E105" s="38"/>
-      <c r="F105" s="39"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="36"/>
     </row>
     <row r="106" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="40"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D106" s="37" t="s">
+      <c r="D106" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="E106" s="38"/>
-      <c r="F106" s="39"/>
+      <c r="E106" s="35"/>
+      <c r="F106" s="36"/>
     </row>
     <row r="107" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="29" t="s">
+      <c r="B107" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C107" s="30" t="s">
+      <c r="C107" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D107" s="31"/>
+      <c r="D107" s="28"/>
       <c r="E107" s="16" t="s">
         <v>77</v>
       </c>
@@ -4061,9 +4072,9 @@
       </c>
     </row>
     <row r="108" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="29"/>
-      <c r="C108" s="32"/>
-      <c r="D108" s="33"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="30"/>
       <c r="E108" s="16" t="s">
         <v>38</v>
       </c>
@@ -4072,13 +4083,13 @@
       </c>
     </row>
     <row r="110" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C110" s="35"/>
-      <c r="D110" s="35"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="36"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="33"/>
     </row>
     <row r="111" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="15" t="s">
@@ -4087,11 +4098,11 @@
       <c r="C111" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D111" s="37" t="s">
+      <c r="D111" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="E111" s="38"/>
-      <c r="F111" s="39"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="36"/>
     </row>
     <row r="112" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="9" t="s">
@@ -4100,55 +4111,55 @@
       <c r="C112" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D112" s="37" t="s">
+      <c r="D112" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E112" s="38"/>
-      <c r="F112" s="39"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="36"/>
     </row>
     <row r="113" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="26" t="s">
         <v>125</v>
       </c>
       <c r="C113" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D113" s="37" t="s">
+      <c r="D113" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E113" s="38"/>
-      <c r="F113" s="39"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="36"/>
     </row>
     <row r="114" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="40"/>
+      <c r="B114" s="37"/>
       <c r="C114" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D114" s="37" t="s">
+      <c r="D114" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E114" s="38"/>
-      <c r="F114" s="39"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="36"/>
     </row>
     <row r="115" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="40"/>
+      <c r="B115" s="37"/>
       <c r="C115" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D115" s="37" t="s">
+      <c r="D115" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="E115" s="38"/>
-      <c r="F115" s="39"/>
+      <c r="E115" s="35"/>
+      <c r="F115" s="36"/>
     </row>
     <row r="116" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="29" t="s">
+      <c r="B116" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="C116" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D116" s="31"/>
+      <c r="D116" s="28"/>
       <c r="E116" s="16" t="s">
         <v>77</v>
       </c>
@@ -4157,9 +4168,9 @@
       </c>
     </row>
     <row r="117" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="29"/>
-      <c r="C117" s="32"/>
-      <c r="D117" s="33"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="30"/>
       <c r="E117" s="16" t="s">
         <v>38</v>
       </c>
@@ -4168,13 +4179,13 @@
       </c>
     </row>
     <row r="119" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="34" t="s">
+      <c r="B119" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C119" s="35"/>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="36"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="33"/>
     </row>
     <row r="120" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="15" t="s">
@@ -4183,11 +4194,11 @@
       <c r="C120" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D120" s="41" t="s">
+      <c r="D120" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E120" s="42"/>
-      <c r="F120" s="43"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="40"/>
     </row>
     <row r="121" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="9" t="s">
@@ -4196,55 +4207,55 @@
       <c r="C121" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D121" s="41" t="s">
+      <c r="D121" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E121" s="42"/>
-      <c r="F121" s="43"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="40"/>
     </row>
     <row r="122" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="29" t="s">
+      <c r="B122" s="26" t="s">
         <v>127</v>
       </c>
       <c r="C122" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D122" s="41" t="s">
+      <c r="D122" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E122" s="42"/>
-      <c r="F122" s="43"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="40"/>
     </row>
     <row r="123" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="40"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D123" s="41" t="s">
+      <c r="D123" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E123" s="42"/>
-      <c r="F123" s="43"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="40"/>
     </row>
     <row r="124" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="40"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D124" s="41" t="s">
+      <c r="D124" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E124" s="42"/>
-      <c r="F124" s="43"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="40"/>
     </row>
     <row r="125" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="29" t="s">
+      <c r="B125" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="C125" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D125" s="31"/>
+      <c r="D125" s="28"/>
       <c r="E125" s="16" t="s">
         <v>77</v>
       </c>
@@ -4253,9 +4264,9 @@
       </c>
     </row>
     <row r="126" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="29"/>
-      <c r="C126" s="32"/>
-      <c r="D126" s="33"/>
+      <c r="B126" s="26"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="30"/>
       <c r="E126" s="16" t="s">
         <v>38</v>
       </c>
@@ -4264,13 +4275,13 @@
       </c>
     </row>
     <row r="128" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="34" t="s">
+      <c r="B128" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C128" s="35"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="F128" s="36"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="33"/>
     </row>
     <row r="129" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="15" t="s">
@@ -4279,11 +4290,11 @@
       <c r="C129" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D129" s="37" t="s">
+      <c r="D129" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="E129" s="38"/>
-      <c r="F129" s="39"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="36"/>
     </row>
     <row r="130" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="9" t="s">
@@ -4292,55 +4303,55 @@
       <c r="C130" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D130" s="37" t="s">
+      <c r="D130" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E130" s="38"/>
-      <c r="F130" s="39"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="36"/>
     </row>
     <row r="131" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="29" t="s">
+      <c r="B131" s="26" t="s">
         <v>129</v>
       </c>
       <c r="C131" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D131" s="37" t="s">
+      <c r="D131" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E131" s="38"/>
-      <c r="F131" s="39"/>
+      <c r="E131" s="35"/>
+      <c r="F131" s="36"/>
     </row>
     <row r="132" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="40"/>
+      <c r="B132" s="37"/>
       <c r="C132" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D132" s="37" t="s">
+      <c r="D132" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="E132" s="38"/>
-      <c r="F132" s="39"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="36"/>
     </row>
     <row r="133" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="40"/>
+      <c r="B133" s="37"/>
       <c r="C133" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D133" s="37" t="s">
+      <c r="D133" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="E133" s="38"/>
-      <c r="F133" s="39"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="36"/>
     </row>
     <row r="134" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="29" t="s">
+      <c r="B134" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C134" s="30" t="s">
+      <c r="C134" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="D134" s="31"/>
+      <c r="D134" s="28"/>
       <c r="E134" s="16" t="s">
         <v>77</v>
       </c>
@@ -4349,9 +4360,9 @@
       </c>
     </row>
     <row r="135" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="29"/>
-      <c r="C135" s="32"/>
-      <c r="D135" s="33"/>
+      <c r="B135" s="26"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="30"/>
       <c r="E135" s="16" t="s">
         <v>38</v>
       </c>
@@ -4360,13 +4371,13 @@
       </c>
     </row>
     <row r="137" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C137" s="35"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="36"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="33"/>
     </row>
     <row r="138" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="15" t="s">
@@ -4375,11 +4386,11 @@
       <c r="C138" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D138" s="37" t="s">
+      <c r="D138" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E138" s="38"/>
-      <c r="F138" s="39"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="36"/>
     </row>
     <row r="139" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="9" t="s">
@@ -4388,55 +4399,55 @@
       <c r="C139" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D139" s="37" t="s">
+      <c r="D139" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E139" s="38"/>
-      <c r="F139" s="39"/>
+      <c r="E139" s="35"/>
+      <c r="F139" s="36"/>
     </row>
     <row r="140" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="29" t="s">
+      <c r="B140" s="26" t="s">
         <v>131</v>
       </c>
       <c r="C140" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D140" s="37" t="s">
+      <c r="D140" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E140" s="38"/>
-      <c r="F140" s="39"/>
+      <c r="E140" s="35"/>
+      <c r="F140" s="36"/>
     </row>
     <row r="141" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="40"/>
+      <c r="B141" s="37"/>
       <c r="C141" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D141" s="37" t="s">
+      <c r="D141" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E141" s="38"/>
-      <c r="F141" s="39"/>
+      <c r="E141" s="35"/>
+      <c r="F141" s="36"/>
     </row>
     <row r="142" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="40"/>
+      <c r="B142" s="37"/>
       <c r="C142" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D142" s="37" t="s">
+      <c r="D142" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="E142" s="38"/>
-      <c r="F142" s="39"/>
+      <c r="E142" s="35"/>
+      <c r="F142" s="36"/>
     </row>
     <row r="143" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="29" t="s">
+      <c r="B143" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C143" s="30" t="s">
+      <c r="C143" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="31"/>
+      <c r="D143" s="28"/>
       <c r="E143" s="16" t="s">
         <v>77</v>
       </c>
@@ -4445,9 +4456,9 @@
       </c>
     </row>
     <row r="144" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="29"/>
-      <c r="C144" s="32"/>
-      <c r="D144" s="33"/>
+      <c r="B144" s="26"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="30"/>
       <c r="E144" s="16" t="s">
         <v>38</v>
       </c>
@@ -4456,13 +4467,13 @@
       </c>
     </row>
     <row r="146" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="34" t="s">
+      <c r="B146" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C146" s="35"/>
-      <c r="D146" s="35"/>
-      <c r="E146" s="35"/>
-      <c r="F146" s="36"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="33"/>
     </row>
     <row r="147" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="15" t="s">
@@ -4471,11 +4482,11 @@
       <c r="C147" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D147" s="37" t="s">
+      <c r="D147" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="E147" s="38"/>
-      <c r="F147" s="39"/>
+      <c r="E147" s="35"/>
+      <c r="F147" s="36"/>
     </row>
     <row r="148" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="s">
@@ -4484,55 +4495,55 @@
       <c r="C148" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D148" s="37" t="s">
+      <c r="D148" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E148" s="38"/>
-      <c r="F148" s="39"/>
+      <c r="E148" s="35"/>
+      <c r="F148" s="36"/>
     </row>
     <row r="149" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="29" t="s">
+      <c r="B149" s="26" t="s">
         <v>133</v>
       </c>
       <c r="C149" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D149" s="37" t="s">
+      <c r="D149" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E149" s="38"/>
-      <c r="F149" s="39"/>
+      <c r="E149" s="35"/>
+      <c r="F149" s="36"/>
     </row>
     <row r="150" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="40"/>
+      <c r="B150" s="37"/>
       <c r="C150" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D150" s="37" t="s">
+      <c r="D150" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="E150" s="38"/>
-      <c r="F150" s="39"/>
+      <c r="E150" s="35"/>
+      <c r="F150" s="36"/>
     </row>
     <row r="151" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="40"/>
+      <c r="B151" s="37"/>
       <c r="C151" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D151" s="37" t="s">
+      <c r="D151" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="E151" s="38"/>
-      <c r="F151" s="39"/>
+      <c r="E151" s="35"/>
+      <c r="F151" s="36"/>
     </row>
     <row r="152" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="29" t="s">
+      <c r="B152" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C152" s="30" t="s">
+      <c r="C152" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D152" s="31"/>
+      <c r="D152" s="28"/>
       <c r="E152" s="16" t="s">
         <v>77</v>
       </c>
@@ -4541,9 +4552,9 @@
       </c>
     </row>
     <row r="153" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="29"/>
-      <c r="C153" s="32"/>
-      <c r="D153" s="33"/>
+      <c r="B153" s="26"/>
+      <c r="C153" s="29"/>
+      <c r="D153" s="30"/>
       <c r="E153" s="16" t="s">
         <v>38</v>
       </c>
@@ -4552,13 +4563,13 @@
       </c>
     </row>
     <row r="155" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="34" t="s">
+      <c r="B155" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C155" s="35"/>
-      <c r="D155" s="35"/>
-      <c r="E155" s="35"/>
-      <c r="F155" s="36"/>
+      <c r="C155" s="32"/>
+      <c r="D155" s="32"/>
+      <c r="E155" s="32"/>
+      <c r="F155" s="33"/>
     </row>
     <row r="156" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="15" t="s">
@@ -4567,11 +4578,11 @@
       <c r="C156" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D156" s="37" t="s">
+      <c r="D156" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="E156" s="38"/>
-      <c r="F156" s="39"/>
+      <c r="E156" s="35"/>
+      <c r="F156" s="36"/>
     </row>
     <row r="157" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="9" t="s">
@@ -4580,55 +4591,55 @@
       <c r="C157" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D157" s="37" t="s">
+      <c r="D157" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E157" s="38"/>
-      <c r="F157" s="39"/>
+      <c r="E157" s="35"/>
+      <c r="F157" s="36"/>
     </row>
     <row r="158" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="29" t="s">
+      <c r="B158" s="26" t="s">
         <v>135</v>
       </c>
       <c r="C158" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D158" s="37" t="s">
+      <c r="D158" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E158" s="38"/>
-      <c r="F158" s="39"/>
+      <c r="E158" s="35"/>
+      <c r="F158" s="36"/>
     </row>
     <row r="159" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="40"/>
+      <c r="B159" s="37"/>
       <c r="C159" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D159" s="37" t="s">
+      <c r="D159" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="E159" s="38"/>
-      <c r="F159" s="39"/>
+      <c r="E159" s="35"/>
+      <c r="F159" s="36"/>
     </row>
     <row r="160" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="40"/>
+      <c r="B160" s="37"/>
       <c r="C160" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D160" s="37" t="s">
+      <c r="D160" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="E160" s="38"/>
-      <c r="F160" s="39"/>
+      <c r="E160" s="35"/>
+      <c r="F160" s="36"/>
     </row>
     <row r="161" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="29" t="s">
+      <c r="B161" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C161" s="30" t="s">
+      <c r="C161" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D161" s="31"/>
+      <c r="D161" s="28"/>
       <c r="E161" s="16" t="s">
         <v>77</v>
       </c>
@@ -4637,9 +4648,9 @@
       </c>
     </row>
     <row r="162" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="29"/>
-      <c r="C162" s="32"/>
-      <c r="D162" s="33"/>
+      <c r="B162" s="26"/>
+      <c r="C162" s="29"/>
+      <c r="D162" s="30"/>
       <c r="E162" s="16" t="s">
         <v>38</v>
       </c>
@@ -4648,13 +4659,13 @@
       </c>
     </row>
     <row r="164" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B164" s="34" t="s">
+      <c r="B164" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C164" s="35"/>
-      <c r="D164" s="35"/>
-      <c r="E164" s="35"/>
-      <c r="F164" s="36"/>
+      <c r="C164" s="32"/>
+      <c r="D164" s="32"/>
+      <c r="E164" s="32"/>
+      <c r="F164" s="33"/>
     </row>
     <row r="165" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="15" t="s">
@@ -4663,11 +4674,11 @@
       <c r="C165" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D165" s="37" t="s">
+      <c r="D165" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E165" s="38"/>
-      <c r="F165" s="39"/>
+      <c r="E165" s="35"/>
+      <c r="F165" s="36"/>
     </row>
     <row r="166" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="9" t="s">
@@ -4676,55 +4687,55 @@
       <c r="C166" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D166" s="37" t="s">
+      <c r="D166" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E166" s="38"/>
-      <c r="F166" s="39"/>
+      <c r="E166" s="35"/>
+      <c r="F166" s="36"/>
     </row>
     <row r="167" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="29" t="s">
+      <c r="B167" s="26" t="s">
         <v>168</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D167" s="37" t="s">
+      <c r="D167" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E167" s="38"/>
-      <c r="F167" s="39"/>
+      <c r="E167" s="35"/>
+      <c r="F167" s="36"/>
     </row>
     <row r="168" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="40"/>
+      <c r="B168" s="37"/>
       <c r="C168" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D168" s="37" t="s">
+      <c r="D168" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="E168" s="38"/>
-      <c r="F168" s="39"/>
+      <c r="E168" s="35"/>
+      <c r="F168" s="36"/>
     </row>
     <row r="169" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="40"/>
+      <c r="B169" s="37"/>
       <c r="C169" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D169" s="37" t="s">
+      <c r="D169" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E169" s="38"/>
-      <c r="F169" s="39"/>
+      <c r="E169" s="35"/>
+      <c r="F169" s="36"/>
     </row>
     <row r="170" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="29" t="s">
+      <c r="B170" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C170" s="30" t="s">
+      <c r="C170" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="D170" s="31"/>
+      <c r="D170" s="28"/>
       <c r="E170" s="16" t="s">
         <v>77</v>
       </c>
@@ -4733,9 +4744,9 @@
       </c>
     </row>
     <row r="171" spans="2:6" ht="200.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="29"/>
-      <c r="C171" s="32"/>
-      <c r="D171" s="33"/>
+      <c r="B171" s="26"/>
+      <c r="C171" s="29"/>
+      <c r="D171" s="30"/>
       <c r="E171" s="16" t="s">
         <v>38</v>
       </c>
@@ -4745,153 +4756,6 @@
     </row>
   </sheetData>
   <mergeCells count="171">
-    <mergeCell ref="B161:B162"/>
-    <mergeCell ref="C161:D162"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:D153"/>
-    <mergeCell ref="B155:F155"/>
-    <mergeCell ref="D156:F156"/>
-    <mergeCell ref="D157:F157"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="D158:F158"/>
-    <mergeCell ref="D159:F159"/>
-    <mergeCell ref="D160:F160"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:D144"/>
-    <mergeCell ref="B146:F146"/>
-    <mergeCell ref="D147:F147"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="D149:F149"/>
-    <mergeCell ref="D150:F150"/>
-    <mergeCell ref="D151:F151"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:D135"/>
-    <mergeCell ref="B137:F137"/>
-    <mergeCell ref="D138:F138"/>
-    <mergeCell ref="D139:F139"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="D140:F140"/>
-    <mergeCell ref="D141:F141"/>
-    <mergeCell ref="D142:F142"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="B128:F128"/>
-    <mergeCell ref="D129:F129"/>
-    <mergeCell ref="D130:F130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="D131:F131"/>
-    <mergeCell ref="D132:F132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:D117"/>
-    <mergeCell ref="B119:F119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="D121:F121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="D122:F122"/>
-    <mergeCell ref="D123:F123"/>
-    <mergeCell ref="D124:F124"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="B110:F110"/>
-    <mergeCell ref="D111:F111"/>
-    <mergeCell ref="D112:F112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="D113:F113"/>
-    <mergeCell ref="D114:F114"/>
-    <mergeCell ref="D115:F115"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:D99"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="D102:F102"/>
-    <mergeCell ref="D103:F103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="D106:F106"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="D93:F93"/>
-    <mergeCell ref="D94:F94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="D95:F95"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="D97:F97"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="D84:F84"/>
-    <mergeCell ref="D85:F85"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="D86:F86"/>
-    <mergeCell ref="D87:F87"/>
-    <mergeCell ref="D88:F88"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="B74:F74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="B65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="B56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="B38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="B29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
     <mergeCell ref="B170:B171"/>
     <mergeCell ref="C170:D171"/>
     <mergeCell ref="B2:F2"/>
@@ -4916,6 +4780,153 @@
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="B56:F56"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="B65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="B74:F74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="D84:F84"/>
+    <mergeCell ref="D85:F85"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="D86:F86"/>
+    <mergeCell ref="D87:F87"/>
+    <mergeCell ref="D88:F88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="D93:F93"/>
+    <mergeCell ref="D94:F94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="D95:F95"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="D97:F97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:D99"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="D102:F102"/>
+    <mergeCell ref="D103:F103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="D106:F106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="B110:F110"/>
+    <mergeCell ref="D111:F111"/>
+    <mergeCell ref="D112:F112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="D113:F113"/>
+    <mergeCell ref="D114:F114"/>
+    <mergeCell ref="D115:F115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:D117"/>
+    <mergeCell ref="B119:F119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="D121:F121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="D122:F122"/>
+    <mergeCell ref="D123:F123"/>
+    <mergeCell ref="D124:F124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="B128:F128"/>
+    <mergeCell ref="D129:F129"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:D135"/>
+    <mergeCell ref="B137:F137"/>
+    <mergeCell ref="D138:F138"/>
+    <mergeCell ref="D139:F139"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="D140:F140"/>
+    <mergeCell ref="D141:F141"/>
+    <mergeCell ref="D142:F142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:D144"/>
+    <mergeCell ref="B146:F146"/>
+    <mergeCell ref="D147:F147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="D149:F149"/>
+    <mergeCell ref="D150:F150"/>
+    <mergeCell ref="D151:F151"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="C161:D162"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:D153"/>
+    <mergeCell ref="B155:F155"/>
+    <mergeCell ref="D156:F156"/>
+    <mergeCell ref="D157:F157"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="D158:F158"/>
+    <mergeCell ref="D159:F159"/>
+    <mergeCell ref="D160:F160"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
